--- a/Analyse données CVRP.xlsx
+++ b/Analyse données CVRP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projets web\cvrp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1E7FE2-8FD0-4036-A2C4-0DE009B67C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64D9FC5-CD65-4A4E-A163-0AAE63390700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" xr2:uid="{F36E4A53-DE61-4EE0-890A-EC15753B6C50}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="63">
   <si>
     <t>Nom fichier</t>
   </si>
@@ -444,117 +444,7 @@
   </cellStyles>
   <dxfs count="50">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -662,7 +552,117 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2011,11 +2011,11 @@
     <sortCondition ref="L2:L14"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{62D21BE9-ADCB-4509-B53F-0B7039506DA7}" name="Fichier" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{B1996745-75DE-4962-8C31-FC32391BAA35}" name="Fitness de base" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{F5BD1261-8146-404D-ACB6-0B7743A3300B}" name="Fitness résultat" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{661766FC-541B-4D4D-A69B-8883294C273E}" name="Amélioration fitness" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{A08AF6FF-38E7-4D15-8336-0A19651ADE3E}" name="Taille liste tabou" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{62D21BE9-ADCB-4509-B53F-0B7039506DA7}" name="Fichier" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{B1996745-75DE-4962-8C31-FC32391BAA35}" name="Fitness de base" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{F5BD1261-8146-404D-ACB6-0B7743A3300B}" name="Fitness résultat" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{661766FC-541B-4D4D-A69B-8883294C273E}" name="Amélioration fitness" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{A08AF6FF-38E7-4D15-8336-0A19651ADE3E}" name="Taille liste tabou" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2025,11 +2025,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6C3432FA-735A-41CF-92A5-659BDBE0A1BF}" name="Tabou_10000_30" displayName="Tabou_10000_30" ref="A1:K29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:K29" xr:uid="{6C3432FA-735A-41CF-92A5-659BDBE0A1BF}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{612142B8-1751-45D2-9E64-9B0E1E10DA3B}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{612142B8-1751-45D2-9E64-9B0E1E10DA3B}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{9F246B2E-7E9D-463A-8E2B-7C2614301316}" uniqueName="2" name="Nb clients" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{1458F92C-34B1-45FD-95E7-157A2AC0A63E}" uniqueName="3" name="Fitness de base" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{4C97D57C-DC2D-46A3-BF40-57296165E766}" uniqueName="4" name="Nb vehicules min" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{C38F34BE-EFE1-47F8-ACB3-2A13BCF511ED}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{C38F34BE-EFE1-47F8-ACB3-2A13BCF511ED}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="19"/>
     <tableColumn id="6" xr3:uid="{0377D8D9-0745-4A17-9A47-070A3980FAA5}" uniqueName="6" name="Fitness resultat" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{5C88A320-DF76-4571-85E0-F843573993C0}" uniqueName="7" name="Vehicules resultat" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{B96C8388-2290-4C61-BCDC-53972DF5F284}" uniqueName="8" name="Nombre iterations" queryTableFieldId="8"/>
@@ -2045,11 +2045,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4D76B655-3F63-41C1-B6DB-EB129FC7717B}" name="Recuit_simulé_10000_0_5_10" displayName="Recuit_simulé_10000_0_5_10" ref="A1:L29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:L29" xr:uid="{4D76B655-3F63-41C1-B6DB-EB129FC7717B}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{33278C07-AF41-4C06-8C16-496605421906}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{33278C07-AF41-4C06-8C16-496605421906}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{06E784FD-784E-45AC-B612-F3BFF1453C08}" uniqueName="2" name="Nb clients" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{C31228C1-C494-487D-9780-A9C7B6477825}" uniqueName="3" name="Fitness de base" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{842870B0-11B1-4829-8416-4939205D6035}" uniqueName="4" name="Nb vehicules min" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{76017D9E-76A2-4662-B8AD-C1F5328F693C}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{76017D9E-76A2-4662-B8AD-C1F5328F693C}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="17"/>
     <tableColumn id="6" xr3:uid="{322DAA2B-CD62-477B-8D26-B8797A3C2001}" uniqueName="6" name="Fitness resultat" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{8E9E98F3-6EDC-40F6-B30E-BA6AF7A62259}" uniqueName="7" name="Vehicules resultat" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{D75C7183-18C8-4E47-80E2-FF17D489B97A}" uniqueName="8" name="Nombre iterations" queryTableFieldId="8"/>
@@ -2066,11 +2066,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5BD2D062-3AA6-460D-85BA-E749F53A1512}" name="Recuit_simulé_10000_0_5_50" displayName="Recuit_simulé_10000_0_5_50" ref="A1:L29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:L29" xr:uid="{5BD2D062-3AA6-460D-85BA-E749F53A1512}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{969BF631-765D-4EC6-B0A9-329F9D96B04D}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{969BF631-765D-4EC6-B0A9-329F9D96B04D}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{A2DF0D17-E586-445E-B8AE-48C38171BA9F}" uniqueName="2" name="Nb clients" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{75760D29-10E4-46A1-9179-5E57C47D0ADD}" uniqueName="3" name="Fitness de base" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{70CCC2D4-0E6E-446A-8E7A-BEB20070DBED}" uniqueName="4" name="Nb vehicules min" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{40EE7310-7DC2-4F1C-9F36-0AA6AEE33010}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{40EE7310-7DC2-4F1C-9F36-0AA6AEE33010}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="15"/>
     <tableColumn id="6" xr3:uid="{8D159161-74EA-4802-A73E-9E7A0ABEC0E7}" uniqueName="6" name="Fitness resultat" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{8E221C96-4681-4F7D-ABF9-2C91E39A2F19}" uniqueName="7" name="Vehicules resultat" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{0D3E6C89-D9A8-4F89-B20B-C3B01190B4D8}" uniqueName="8" name="Nombre iterations" queryTableFieldId="8"/>
@@ -2087,11 +2087,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{22DE4480-8E76-46E0-9A0A-B974482FB582}" name="Recuit_simulé_10000_0_5_250" displayName="Recuit_simulé_10000_0_5_250" ref="A1:L29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:L29" xr:uid="{22DE4480-8E76-46E0-9A0A-B974482FB582}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0C40D207-BD27-485F-B1A2-631024003FF2}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{0C40D207-BD27-485F-B1A2-631024003FF2}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{C6638578-C3CA-402E-82EF-EB39DDC7D99D}" uniqueName="2" name="Nb clients" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{D5D64578-3DE1-4D16-AA18-B56187490F89}" uniqueName="3" name="Fitness de base" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{D2CAD817-D575-47A6-A61A-DEEEFD50610E}" uniqueName="4" name="Nb vehicules min" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{4B4EA63A-D3A9-47D1-8E85-95C894C79B1C}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{4B4EA63A-D3A9-47D1-8E85-95C894C79B1C}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="13"/>
     <tableColumn id="6" xr3:uid="{0503E82C-2746-4BEC-977D-1CBA3D67ECFD}" uniqueName="6" name="Fitness resultat" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{2045F03E-A9D1-4F0F-A882-B538F6FF8719}" uniqueName="7" name="Vehicules resultat" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{98314ED1-9417-433E-B0EB-FAEFB4EA6A26}" uniqueName="8" name="Nombre iterations" queryTableFieldId="8"/>
@@ -2108,11 +2108,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6FB5CE85-C18E-40BA-8CF3-0641FFA79A63}" name="Recuit_simulé_10000_0_7_10" displayName="Recuit_simulé_10000_0_7_10" ref="A1:L29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:L29" xr:uid="{6FB5CE85-C18E-40BA-8CF3-0641FFA79A63}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{16A3B544-707A-4F2C-9B3B-E10BAD979AAF}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{16A3B544-707A-4F2C-9B3B-E10BAD979AAF}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{108D0D35-1965-40F8-8961-97E212A2A398}" uniqueName="2" name="Nb clients" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{868E1501-16A1-4753-A930-0F98809F8351}" uniqueName="3" name="Fitness de base" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{EA17102B-092C-47B0-9E98-CBE65C369064}" uniqueName="4" name="Nb vehicules min" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{CA067252-DDCF-4DF8-9719-7F785E271E3E}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{CA067252-DDCF-4DF8-9719-7F785E271E3E}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="11"/>
     <tableColumn id="6" xr3:uid="{E6C83E31-2540-4893-BAE6-CE9077ECA45C}" uniqueName="6" name="Fitness resultat" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{96092EC3-043C-467B-A943-F78E590F52E7}" uniqueName="7" name="Vehicules resultat" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{1371C2CB-F374-4239-9392-A7E3323D8BF6}" uniqueName="8" name="Nombre iterations" queryTableFieldId="8"/>
@@ -2129,11 +2129,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1D5DF8C6-5371-40FB-8112-5A681EF270B3}" name="Recuit_simulé_10000_0_7_50" displayName="Recuit_simulé_10000_0_7_50" ref="A1:L29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:L29" xr:uid="{1D5DF8C6-5371-40FB-8112-5A681EF270B3}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E3CFB113-FA37-489F-9D54-5E07EF982070}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{E3CFB113-FA37-489F-9D54-5E07EF982070}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{3148C614-FAF8-4B2F-9AA4-EA1AF9934049}" uniqueName="2" name="Nb clients" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{8D0571C9-6EE2-4A78-9C81-DF6992A36EAB}" uniqueName="3" name="Fitness de base" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{C18C6344-26F7-4060-ABC0-CC8EFCE077F9}" uniqueName="4" name="Nb vehicules min" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{91837E1E-1BB7-477E-83EC-21550C296E2C}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{91837E1E-1BB7-477E-83EC-21550C296E2C}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="9"/>
     <tableColumn id="6" xr3:uid="{C0F0AA20-BA7E-40DB-8C64-5253EF1B95B9}" uniqueName="6" name="Fitness resultat" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{2A613698-900E-46B4-921C-9230C204A059}" uniqueName="7" name="Vehicules resultat" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{890B59B6-D99E-4810-99BE-761D275CF465}" uniqueName="8" name="Nombre iterations" queryTableFieldId="8"/>
@@ -2150,11 +2150,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0A42E60B-773D-483F-89A3-83C9583D879F}" name="Recuit_simulé_10000_0_7_250" displayName="Recuit_simulé_10000_0_7_250" ref="A1:L29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:L29" xr:uid="{0A42E60B-773D-483F-89A3-83C9583D879F}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{57E64C98-0A99-458B-88D7-D6687606B260}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{57E64C98-0A99-458B-88D7-D6687606B260}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{4475CDFF-CED7-4D5A-BDD9-B7E410614CD9}" uniqueName="2" name="Nb clients" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{6828146F-3855-49F9-825C-CBFC6D5D72E8}" uniqueName="3" name="Fitness de base" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{8A886383-4EA3-420B-BDF8-ECB451C73F02}" uniqueName="4" name="Nb vehicules min" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{FD694A0D-22CA-4DCF-90B0-6F3AF9112A03}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{FD694A0D-22CA-4DCF-90B0-6F3AF9112A03}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{E9B3F376-BDFF-4684-90E1-04ED33EAC7F8}" uniqueName="6" name="Fitness resultat" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{5363EA1B-C8C9-40FB-901E-D504B0C08A7E}" uniqueName="7" name="Vehicules resultat" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{1DC9B0BA-BBE7-44A9-9F96-CCD939575949}" uniqueName="8" name="Nombre iterations" queryTableFieldId="8"/>
@@ -2171,11 +2171,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{675FDEEB-D0E9-4880-BE46-EFFB5721388C}" name="Recuit_simulé_10000_0_9_10" displayName="Recuit_simulé_10000_0_9_10" ref="A1:L29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:L29" xr:uid="{675FDEEB-D0E9-4880-BE46-EFFB5721388C}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{22779D76-AFF3-4D4A-8BFF-87414C86C1D0}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{22779D76-AFF3-4D4A-8BFF-87414C86C1D0}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{9689BA66-723F-4AB6-BC09-C8A5ADE156FD}" uniqueName="2" name="Nb clients" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{7425F69C-3875-4740-B712-BC8BC110E793}" uniqueName="3" name="Fitness de base" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{BA2B56C4-0F62-455F-85D3-4369AC17D379}" uniqueName="4" name="Nb vehicules min" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{CC72ECDC-78EA-41EE-ABC9-D12A51090392}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{CC72ECDC-78EA-41EE-ABC9-D12A51090392}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{45DF41FD-1240-4DD2-9287-A67DA145EBBB}" uniqueName="6" name="Fitness resultat" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{F07F9F3C-FA77-4D28-A087-65C85A8514ED}" uniqueName="7" name="Vehicules resultat" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{C4B821B1-3854-49FD-B2D3-150882F87CA4}" uniqueName="8" name="Nombre iterations" queryTableFieldId="8"/>
@@ -2192,11 +2192,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{E2F3555A-ABA5-4A12-BFA3-BB1A51D27498}" name="Recuit_simulé_10000_0_9_50" displayName="Recuit_simulé_10000_0_9_50" ref="A1:L29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:L29" xr:uid="{E2F3555A-ABA5-4A12-BFA3-BB1A51D27498}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{261F9C68-12C6-4650-A4D7-CCFD62095337}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{261F9C68-12C6-4650-A4D7-CCFD62095337}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{64852B0F-84CE-4CE4-8A92-FEED280F9CC7}" uniqueName="2" name="Nb clients" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{A76B0857-E460-4288-B4F4-9273DD574788}" uniqueName="3" name="Fitness de base" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{C3D89E53-D2C7-4BC6-8019-F14932D1532F}" uniqueName="4" name="Nb vehicules min" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{28CEE3CE-72A0-4B5F-8243-88967B8D7044}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{28CEE3CE-72A0-4B5F-8243-88967B8D7044}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{3B34F5B4-AF8A-4AF3-814F-4383C0F3C436}" uniqueName="6" name="Fitness resultat" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{0DE951E0-0CCB-4D39-B794-4EBA07014C8A}" uniqueName="7" name="Vehicules resultat" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{D0AF2569-AFF3-4FFB-B7F9-4DBEFA8A07CA}" uniqueName="8" name="Nombre iterations" queryTableFieldId="8"/>
@@ -2213,11 +2213,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{E655EFDF-8F36-4A97-B542-7DA5BF9A0C1E}" name="Recuit_simulé_10000_0_9_250" displayName="Recuit_simulé_10000_0_9_250" ref="A1:M29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:M29" xr:uid="{E655EFDF-8F36-4A97-B542-7DA5BF9A0C1E}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{3BB9C3AF-B58C-43EE-9EE7-2CB3CA359BB7}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{3BB9C3AF-B58C-43EE-9EE7-2CB3CA359BB7}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{97670CCB-A1AB-4FBF-9AE7-97B1F00810E4}" uniqueName="2" name="Nb clients" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{58DF307F-71E1-41CA-A8FB-6575C2D526F0}" uniqueName="3" name="Fitness de base" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{80C917A7-3D7B-45A8-AFA7-8A9AA4E29E8A}" uniqueName="4" name="Nb vehicules min" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{5F5A2FE5-A26A-4177-8277-C9C3E14C3813}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{5F5A2FE5-A26A-4177-8277-C9C3E14C3813}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{22C94AD1-4621-4924-A67E-5B956BEB6D03}" uniqueName="6" name="Fitness resultat" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{8033BEB9-8B9B-4914-97BA-05A0DD66E712}" uniqueName="7" name="Vehicules resultat" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{E1DE6111-F622-4483-A4FE-0D84AFF469AC}" uniqueName="8" name="Nombre iterations" queryTableFieldId="8"/>
@@ -2225,30 +2225,30 @@
     <tableColumn id="10" xr3:uid="{49CDB81E-8380-4818-9D74-091CBACF9E11}" uniqueName="10" name="Amelioration fitness" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{D8D38FD1-2B3F-43BD-981D-732C7B17027F}" uniqueName="11" name="Amélioration fitness" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{400A40CB-6551-49C4-8608-27EA3B2F8D91}" uniqueName="12" name="Variation (µ)" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{005B6F3D-0ED4-41C4-81E3-7BBB5948EB25}" uniqueName="13" name="Température" queryTableFieldId="13" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{005B6F3D-0ED4-41C4-81E3-7BBB5948EB25}" uniqueName="13" name="Température" queryTableFieldId="13" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{FE5DF974-28A1-49C2-BD7E-B99F39A60D63}" name="Tableau1822" displayName="Tableau1822" ref="L24:P37" totalsRowCount="1" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{FE5DF974-28A1-49C2-BD7E-B99F39A60D63}" name="Tableau1822" displayName="Tableau1822" ref="L24:P37" totalsRowCount="1" dataDxfId="44">
   <autoFilter ref="L24:P36" xr:uid="{FE5DF974-28A1-49C2-BD7E-B99F39A60D63}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L25:P36">
     <sortCondition ref="L10:L22"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9B0E0C7B-2001-4561-8D1E-19AB40BEE2A6}" name="Fichier" totalsRowLabel="Moyenne" dataDxfId="8" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{C27EA134-2ED3-4D10-BB56-FE1252C861AA}" name="Fitness de base" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{9B0E0C7B-2001-4561-8D1E-19AB40BEE2A6}" name="Fichier" totalsRowLabel="Moyenne" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{C27EA134-2ED3-4D10-BB56-FE1252C861AA}" name="Fitness de base" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <totalsRowFormula>AVERAGE(Tableau1822[Fitness de base])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6D6A5C5F-D0F9-4D0E-96AC-ABBB162B4378}" name="Fitness résultat" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{6D6A5C5F-D0F9-4D0E-96AC-ABBB162B4378}" name="Fitness résultat" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
       <totalsRowFormula>AVERAGE(Tableau1822[Fitness résultat])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B123CB2A-15BF-4A9B-A60F-962F11189C19}" name="Amélioration fitness" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="0">
+    <tableColumn id="4" xr3:uid="{B123CB2A-15BF-4A9B-A60F-962F11189C19}" name="Amélioration fitness" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
       <totalsRowFormula>AVERAGE(Tableau1822[Amélioration fitness])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{520EE7C8-3EE1-4AB8-A91B-5CBED61BFAB9}" name="Taille liste taboue" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{520EE7C8-3EE1-4AB8-A91B-5CBED61BFAB9}" name="Taille liste taboue" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2258,11 +2258,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8298C213-4F3A-4692-A00F-E1FFD220AAB9}" name="Tabou_1000_1" displayName="Tabou_1000_1" ref="A1:K29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:K29" xr:uid="{8298C213-4F3A-4692-A00F-E1FFD220AAB9}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C51AAC2C-7C03-42AD-9D8A-3650B264B3D4}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{C51AAC2C-7C03-42AD-9D8A-3650B264B3D4}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="34"/>
     <tableColumn id="2" xr3:uid="{CC955E9C-E400-4060-8BAD-998B5E5CEDF1}" uniqueName="2" name="Nb clients" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{31FBC36F-7BD7-42C7-AB2B-7150AAD6D8FC}" uniqueName="3" name="Fitness de base" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{A0FD199D-CE29-4B33-B227-EC10561DC6D0}" uniqueName="4" name="Nb vehicules min" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{DBCB0696-0872-466A-B7A0-9262A09038DF}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{DBCB0696-0872-466A-B7A0-9262A09038DF}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="33"/>
     <tableColumn id="6" xr3:uid="{25DD737F-DC47-4567-86E6-EFDDCD7D0179}" uniqueName="6" name="Fitness resultat" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{0C604C41-4C17-42A2-B797-41F771A275C9}" uniqueName="7" name="Vehicules resultat" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{A3E6938B-4F4E-4346-9325-841E1DFCF1A1}" uniqueName="8" name="Nombre iterations" queryTableFieldId="8"/>
@@ -2278,11 +2278,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{10667100-39F5-4660-9C07-87665DEB05B1}" name="Tabou_1000_10" displayName="Tabou_1000_10" ref="A1:K29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:K29" xr:uid="{10667100-39F5-4660-9C07-87665DEB05B1}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00DF948F-29B3-455C-8C88-93B7EF12AABB}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{00DF948F-29B3-455C-8C88-93B7EF12AABB}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{BABAA2BB-490C-465E-B2F8-F8E0272066FD}" uniqueName="2" name="Nb clients" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{102637B5-A7F3-478F-9FA6-A3C00A42E502}" uniqueName="3" name="Fitness de base" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{F93F1E30-4240-4E1C-A651-B61FB64EABFE}" uniqueName="4" name="Nb vehicules min" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{904F1D96-EEB5-4145-B942-A118C4151F34}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{904F1D96-EEB5-4145-B942-A118C4151F34}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="31"/>
     <tableColumn id="6" xr3:uid="{628D0E3D-5BB4-4CCC-AE2E-D1E7FA6A79ED}" uniqueName="6" name="Fitness resultat" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{71EAE639-C74E-4CD8-A654-740CA8142CCE}" uniqueName="7" name="Vehicules resultat" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{9F2838AF-6A43-4072-9885-364ED2399FD6}" uniqueName="8" name="Nombre iterations" queryTableFieldId="8"/>
@@ -2298,11 +2298,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F24A297D-150C-4F99-ACF8-B4B96E972270}" name="Tabou_1000_30" displayName="Tabou_1000_30" ref="A1:K29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:K29" xr:uid="{F24A297D-150C-4F99-ACF8-B4B96E972270}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{1C85AEC6-592E-450B-8EC7-70190E9EEB29}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{1C85AEC6-592E-450B-8EC7-70190E9EEB29}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="30"/>
     <tableColumn id="2" xr3:uid="{B0B4EBFC-7AF0-4F82-BE2C-7DE293779DBB}" uniqueName="2" name="Nb clients" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{BD39BC61-02C3-4186-812E-9216454F793A}" uniqueName="3" name="Fitness de base" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{99420EE5-69EB-4E6C-A6FA-5B67C9FF0D35}" uniqueName="4" name="Nb vehicules min" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{CB7FE2C4-5CFC-4EB6-98EB-431A477238B1}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{CB7FE2C4-5CFC-4EB6-98EB-431A477238B1}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="29"/>
     <tableColumn id="6" xr3:uid="{F4F5C118-CA50-4510-80A0-1A060758CC32}" uniqueName="6" name="Fitness resultat" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{164A4ABE-4285-4093-BC20-91EF737A5C0C}" uniqueName="7" name="Vehicules resultat" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{866C9B01-6484-4630-B0C5-333A11126DCA}" uniqueName="8" name="Nombre iterations" queryTableFieldId="8"/>
@@ -2318,11 +2318,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5D53D5CB-879D-4A26-93DD-6A122A4A700A}" name="Tabou_1000_20" displayName="Tabou_1000_20" ref="A1:K29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:K29" xr:uid="{5D53D5CB-879D-4A26-93DD-6A122A4A700A}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{EF3CF124-BB55-414A-9673-5E4CC7562ACA}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{EF3CF124-BB55-414A-9673-5E4CC7562ACA}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{29DEC2EF-C76A-4698-9D77-2D90B11FD16B}" uniqueName="2" name="Nb clients" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{63DC17BA-CD23-4274-AC58-4A07DFF09C65}" uniqueName="3" name="Fitness de base" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{BB165DAD-E0F5-4017-85C8-27814DADAB60}" uniqueName="4" name="Nb vehicules min" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{A5241067-41CC-4E4E-8C38-0130A4E48407}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{A5241067-41CC-4E4E-8C38-0130A4E48407}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="27"/>
     <tableColumn id="6" xr3:uid="{25C472A7-6BBF-4381-9FD9-6C0EAD82DA0F}" uniqueName="6" name="Fitness resultat" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{407C790B-BFD8-476B-9AE8-C4DFEDBF91A0}" uniqueName="7" name="Vehicules resultat" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{26612EE3-705F-49BA-A169-3792C2E8BF04}" uniqueName="8" name="Nombre iterations" queryTableFieldId="8"/>
@@ -2338,11 +2338,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BAD54104-0865-4EC8-B7B7-4C7D34641478}" name="Tabou_10000_1" displayName="Tabou_10000_1" ref="A1:K29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:K29" xr:uid="{BAD54104-0865-4EC8-B7B7-4C7D34641478}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{87760A38-62F4-4635-B034-A6B835AD0648}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{87760A38-62F4-4635-B034-A6B835AD0648}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{91D6C5F3-443C-4EA7-8FEA-4948C0B5DADD}" uniqueName="2" name="Nb clients" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{E8499D79-8BE7-41FD-B066-572410169C41}" uniqueName="3" name="Fitness de base" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{799436D9-BBD7-4535-B1DA-414BC5D92129}" uniqueName="4" name="Nb vehicules min" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{883035BF-9E26-4F69-96DB-8A03AAB9DC55}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{883035BF-9E26-4F69-96DB-8A03AAB9DC55}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="25"/>
     <tableColumn id="6" xr3:uid="{552F9E25-1E7D-4282-B23A-E78101433095}" uniqueName="6" name="Fitness resultat" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{E6362BB5-48CC-4C87-94D3-9DE0E9AC49C9}" uniqueName="7" name="Vehicules resultat" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{C8A79F35-77E8-4C6D-9ACD-520701160481}" uniqueName="8" name="Nombre iterations" queryTableFieldId="8"/>
@@ -2358,11 +2358,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CE38AA21-8F69-45B6-9B28-23BFCACB63EF}" name="Tabou_10000_10" displayName="Tabou_10000_10" ref="A1:K29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:K29" xr:uid="{CE38AA21-8F69-45B6-9B28-23BFCACB63EF}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D6730CFC-0DB2-4E23-8C0A-C75366C621F0}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{D6730CFC-0DB2-4E23-8C0A-C75366C621F0}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{7914EA28-DD0D-4075-8957-8850F7548982}" uniqueName="2" name="Nb clients" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{D340C830-6045-4D71-A00F-B6F62182A8D5}" uniqueName="3" name="Fitness de base" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{516702A5-C983-479A-91EC-89A8D189831E}" uniqueName="4" name="Nb vehicules min" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{CD5DB0D7-6FD3-484A-9C47-D0DD0D4214A0}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{CD5DB0D7-6FD3-484A-9C47-D0DD0D4214A0}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="23"/>
     <tableColumn id="6" xr3:uid="{CE2DBA44-64BD-4247-BF39-3AE22507CC52}" uniqueName="6" name="Fitness resultat" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{AFDCADFC-81A1-4787-8C73-6C64D75F9D6B}" uniqueName="7" name="Vehicules resultat" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{F713F959-C4BD-4160-BF5E-BF30BDD5EC33}" uniqueName="8" name="Nombre iterations" queryTableFieldId="8"/>
@@ -2378,11 +2378,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{83619913-4D8D-4C81-BBE6-9A6D22EA3558}" name="Tabou_10000_20" displayName="Tabou_10000_20" ref="A1:K29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:K29" xr:uid="{83619913-4D8D-4C81-BBE6-9A6D22EA3558}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{656397F2-ABD8-4C74-BC32-07C35FC44241}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{656397F2-ABD8-4C74-BC32-07C35FC44241}" uniqueName="1" name="Nom fichier" queryTableFieldId="1" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{54297B62-4C33-4F95-ADBC-B529308CEB37}" uniqueName="2" name="Nb clients" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{742A9ABF-4EA5-45A7-86B5-12D239D2D4A8}" uniqueName="3" name="Fitness de base" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{7BC4FEB0-A685-467B-AFA9-16BA1C7C2ABC}" uniqueName="4" name="Nb vehicules min" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{C66329B4-D066-4AED-BD63-0DF8925C07CF}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{C66329B4-D066-4AED-BD63-0DF8925C07CF}" uniqueName="5" name="Metaheuristique" queryTableFieldId="5" dataDxfId="21"/>
     <tableColumn id="6" xr3:uid="{6283A21A-5D98-4D5A-BE1B-F54AE9546689}" uniqueName="6" name="Fitness resultat" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{A078E994-61DD-47C7-B854-6CA79C99D227}" uniqueName="7" name="Vehicules resultat" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{370C9EF7-7C58-47F4-8737-39041D3CC8F8}" uniqueName="8" name="Nombre iterations" queryTableFieldId="8"/>
@@ -2692,10 +2692,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C660E5CC-525A-434A-8B8F-E74D4381C997}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2707,7 +2707,7 @@
     <col min="16" max="16" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -2732,8 +2732,11 @@
       <c r="L1" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2776,7 +2779,7 @@
       </c>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -2823,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="E5" s="5" t="s">
         <v>37</v>
@@ -2911,7 +2914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E6" s="6" t="s">
         <v>38</v>
       </c>
@@ -2945,7 +2948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7" s="6" t="s">
         <v>38</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E9" s="6" t="s">
         <v>38</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E10" s="5" t="s">
         <v>39</v>
       </c>
@@ -3082,7 +3085,7 @@
       </c>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E11" s="5" t="s">
         <v>39</v>
       </c>
@@ -3117,7 +3120,7 @@
       </c>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
@@ -3152,7 +3155,7 @@
       </c>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E13" s="5" t="s">
         <v>39</v>
       </c>
@@ -3186,7 +3189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>59</v>
       </c>
@@ -3211,7 +3214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L15" s="12" t="s">
         <v>61</v>
       </c>
@@ -3228,7 +3231,7 @@
         <v>4249.4191666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L16" s="12" t="s">
         <v>62</v>
       </c>
@@ -11589,7 +11592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869B7C95-DA76-496C-841B-D458614F8864}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12710,6 +12715,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
